--- a/data/raw/Glass eel stock deepfreeze 2017.xlsx
+++ b/data/raw/Glass eel stock deepfreeze 2017.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Biologie\Master\Thesis\Thesis\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Documenten\Biologie\Master\Thesis\Thesis\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DEA63B-2E5B-4CB3-8706-C02E903FF442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DFCB56-C52B-4B7B-940B-DE1D2282350C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t>sample lost</t>
   </si>
   <si>
-    <t>Catchment method</t>
-  </si>
-  <si>
     <t>Palinggoot</t>
   </si>
   <si>
@@ -196,7 +193,10 @@
     <t>Kruisnetten</t>
   </si>
   <si>
-    <t>x</t>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>Fishing method</t>
   </si>
 </sst>
 </file>
@@ -657,30 +657,30 @@
   <dimension ref="A1:V277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="20.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="12" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="12"/>
-    <col min="13" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="13.28515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="20.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="12" customWidth="1"/>
+    <col min="10" max="12" width="9.1796875" style="12"/>
+    <col min="13" max="15" width="9.1796875" style="2"/>
+    <col min="16" max="16" width="13.26953125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>19</v>
@@ -689,7 +689,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>21</v>
@@ -713,7 +713,7 @@
       <c r="L1" s="21"/>
       <c r="P1" s="23"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="4">
         <v>77</v>
@@ -743,7 +743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4">
         <v>74</v>
@@ -773,7 +773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4">
         <v>70</v>
@@ -803,7 +803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -814,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="4">
         <v>68</v>
@@ -833,7 +833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -844,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4">
         <v>76</v>
@@ -863,7 +863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="4">
         <v>66</v>
@@ -904,7 +904,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -915,7 +915,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="4">
         <v>66</v>
@@ -934,7 +934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -945,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4">
         <v>71</v>
@@ -964,7 +964,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -975,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="4">
         <v>70</v>
@@ -994,7 +994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="4">
         <v>69</v>
@@ -1024,7 +1024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="4">
         <v>64</v>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="4">
         <v>72</v>
@@ -1079,7 +1079,7 @@
         <v>0.76624657064471879</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="4">
         <v>74</v>
@@ -1109,7 +1109,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="4">
         <v>76</v>
@@ -1136,7 +1136,7 @@
         <v>0.91576760460708562</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="4">
         <v>69</v>
@@ -1166,7 +1166,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4">
         <v>79</v>
@@ -1193,7 +1193,7 @@
         <v>0.77073010451505863</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="4">
         <v>65</v>
@@ -1223,7 +1223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="4">
         <v>73</v>
@@ -1250,7 +1250,7 @@
         <v>0.83286848646717238</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="4">
         <v>70</v>
@@ -1277,7 +1277,7 @@
         <v>0.85422740524781349</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="4">
         <v>74</v>
@@ -1304,7 +1304,7 @@
         <v>0.88839752828065466</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="4">
         <v>71</v>
@@ -1331,7 +1331,7 @@
         <v>0.71805560600260965</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="4">
         <v>68</v>
@@ -1361,7 +1361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="4">
         <v>69</v>
@@ -1388,7 +1388,7 @@
         <v>0.88886453643583585</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="4">
         <v>63</v>
@@ -1415,7 +1415,7 @@
         <v>1.0478030130335496</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="4">
         <v>69</v>
@@ -1442,7 +1442,7 @@
         <v>0.8462477435930218</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" s="4">
         <v>76</v>
@@ -1469,7 +1469,7 @@
         <v>0.82692447878699527</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="4">
         <v>66</v>
@@ -1498,7 +1498,7 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="4">
         <v>73</v>
@@ -1525,7 +1525,7 @@
         <v>0.89970361192441461</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="4">
         <v>75</v>
@@ -1552,7 +1552,7 @@
         <v>0.77985185185185191</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="4">
         <v>70</v>
@@ -1579,7 +1579,7 @@
         <v>0.66180758017492713</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="4">
         <v>72</v>
@@ -1606,7 +1606,7 @@
         <v>0.93503515089163236</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="4">
         <v>76</v>
@@ -1633,7 +1633,7 @@
         <v>0.74719346843563206</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="4">
         <v>72</v>
@@ -1660,7 +1660,7 @@
         <v>0.76088820301783266</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="4">
         <v>69</v>
@@ -1687,7 +1687,7 @@
         <v>0.70622113853806134</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="4">
         <v>70</v>
@@ -1714,7 +1714,7 @@
         <v>0.74052478134110788</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="4">
         <v>59</v>
@@ -1741,7 +1741,7 @@
         <v>0.58915468475355315</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="4">
         <v>65</v>
@@ -1768,7 +1768,7 @@
         <v>0.90304961310878473</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="4">
         <v>64</v>
@@ -1795,7 +1795,7 @@
         <v>0.75531005859375</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40" s="4">
         <v>71</v>
@@ -1822,7 +1822,7 @@
         <v>0.84657917750502221</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" s="4">
         <v>71</v>
@@ -1849,7 +1849,7 @@
         <v>0.80746330791733145</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="4">
         <v>77</v>
@@ -1876,7 +1876,7 @@
         <v>0.87616886402516359</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="4">
         <v>70</v>
@@ -1903,7 +1903,7 @@
         <v>0.87463556851311952</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="4">
         <v>67</v>
@@ -1930,7 +1930,7 @@
         <v>0.88109242160771106</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="4">
         <v>68</v>
@@ -1957,7 +1957,7 @@
         <v>0.70603500915937301</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>16</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" s="4">
         <v>72</v>
@@ -1984,7 +1984,7 @@
         <v>0.83858453360768181</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>16</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47" s="4">
         <v>73</v>
@@ -2011,7 +2011,7 @@
         <v>0.86371546744743799</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="4">
         <v>72</v>
@@ -2038,7 +2038,7 @@
         <v>0.81447187928669407</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E49" s="4">
         <v>67</v>
@@ -2065,7 +2065,7 @@
         <v>0.81459488035429883</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E50" s="4">
         <v>69</v>
@@ -2092,7 +2092,7 @@
         <v>0.88277642317257665</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E51" s="4">
         <v>67</v>
@@ -2119,7 +2119,7 @@
         <v>0.7680466014769104</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E52" s="4">
         <v>65</v>
@@ -2146,7 +2146,7 @@
         <v>0.78288575329995447</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E53" s="4">
         <v>79</v>
@@ -2173,7 +2173,7 @@
         <v>0.8964808057780419</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>10</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E54" s="4">
         <v>71</v>
@@ -2200,7 +2200,7 @@
         <v>0.8521671588746923</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E55" s="4">
         <v>63</v>
@@ -2227,7 +2227,7 @@
         <v>1.0158090279027543</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>10</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E56" s="4">
         <v>66</v>
@@ -2254,7 +2254,7 @@
         <v>0.73044494532097837</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>10</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E57" s="4">
         <v>63</v>
@@ -2281,7 +2281,7 @@
         <v>1.0478030130335496</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>10</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E58" s="4">
         <v>58</v>
@@ -2308,7 +2308,7 @@
         <v>0.8712944360162368</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E59" s="4">
         <v>75</v>
@@ -2335,7 +2335,7 @@
         <v>0.82251851851851854</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E60" s="4">
         <v>71</v>
@@ -2362,7 +2362,7 @@
         <v>0.7571714755903004</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E61" s="4">
         <v>76</v>
@@ -2389,7 +2389,7 @@
         <v>0.80642221898235888</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E62" s="4">
         <v>65</v>
@@ -2416,7 +2416,7 @@
         <v>0.68821119708693668</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E63" s="4">
         <v>76</v>
@@ -2446,7 +2446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E64" s="4">
         <v>68</v>
@@ -2484,7 +2484,7 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>6</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E65" s="4">
         <v>66</v>
@@ -2522,7 +2522,7 @@
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E66" s="4">
         <v>67</v>
@@ -2560,7 +2560,7 @@
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E67" s="4">
         <v>64</v>
@@ -2598,7 +2598,7 @@
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E68" s="4">
         <v>68</v>
@@ -2625,7 +2625,7 @@
         <v>0.83960920008141671</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E69" s="4">
         <v>74</v>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="K69" s="16"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E70" s="4">
         <v>73</v>
@@ -2680,7 +2680,7 @@
         <v>0.83800964996388327</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E71" s="4">
         <v>70</v>
@@ -2707,7 +2707,7 @@
         <v>0.93586005830903785</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E72" s="4">
         <v>72</v>
@@ -2734,7 +2734,7 @@
         <v>0.89752657750342935</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E73" s="4">
         <v>73</v>
@@ -2764,7 +2764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>11</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E74" s="4">
         <v>74</v>
@@ -2797,7 +2797,7 @@
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
     </row>
-    <row r="75" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>11</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E75" s="4">
         <v>68</v>
@@ -2828,7 +2828,7 @@
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
     </row>
-    <row r="76" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>11</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E76" s="4">
         <v>71</v>
@@ -2863,7 +2863,7 @@
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
     </row>
-    <row r="77" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>11</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E77" s="4">
         <v>69</v>
@@ -2894,7 +2894,7 @@
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>11</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E78" s="4">
         <v>67</v>
@@ -2927,7 +2927,7 @@
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>10</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E79" s="4">
         <v>69</v>
@@ -2957,7 +2957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>10</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E80" s="4">
         <v>71</v>
@@ -2987,7 +2987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>10</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E81" s="4">
         <v>69</v>
@@ -3014,7 +3014,7 @@
         <v>0.89495264969909505</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E82" s="4">
         <v>64</v>
@@ -3044,7 +3044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>10</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E83" s="4">
         <v>74</v>
@@ -3074,7 +3074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E84" s="4">
         <v>64</v>
@@ -3101,7 +3101,7 @@
         <v>0.804901123046875</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E85" s="4">
         <v>71</v>
@@ -3131,7 +3131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E86" s="4">
         <v>70</v>
@@ -3161,7 +3161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E87" s="4">
         <v>72</v>
@@ -3188,7 +3188,7 @@
         <v>0.82786779835390945</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E88" s="4">
         <v>75</v>
@@ -3218,7 +3218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E89" s="4">
         <v>73</v>
@@ -3245,7 +3245,7 @@
         <v>0.76603336100993014</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E90" s="4">
         <v>70</v>
@@ -3272,7 +3272,7 @@
         <v>0.59183673469387754</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E91" s="4">
         <v>69</v>
@@ -3299,7 +3299,7 @@
         <v>0.98018623538472305</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E92" s="4">
         <v>70</v>
@@ -3329,7 +3329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E93" s="4">
         <v>67</v>
@@ -3359,7 +3359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E94" s="4">
         <v>72</v>
@@ -3386,7 +3386,7 @@
         <v>1.0154106652949246</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E95" s="4">
         <v>69</v>
@@ -3413,7 +3413,7 @@
         <v>0.83711557369813305</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E96" s="4">
         <v>70</v>
@@ -3440,7 +3440,7 @@
         <v>0.83965014577259478</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E97" s="4">
         <v>73</v>
@@ -3467,7 +3467,7 @@
         <v>0.90998593891783652</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E98" s="4">
         <v>74</v>
@@ -3494,7 +3494,7 @@
         <v>0.72552464809586792</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>16</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E99" s="4">
         <v>65</v>
@@ -3527,7 +3527,7 @@
       <c r="K99" s="13"/>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>16</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E100" s="4">
         <v>69</v>
@@ -3560,7 +3560,7 @@
       <c r="K100" s="13"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>16</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E101" s="4">
         <v>69</v>
@@ -3591,7 +3591,7 @@
       <c r="K101" s="13"/>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>16</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E102" s="4">
         <v>66</v>
@@ -3626,7 +3626,7 @@
       <c r="K102" s="13"/>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>10</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E103" s="4">
         <v>71</v>
@@ -3656,7 +3656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>10</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E104" s="4">
         <v>64</v>
@@ -3689,7 +3689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>10</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E105" s="4">
         <v>70</v>
@@ -3719,7 +3719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>10</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E106" s="4">
         <v>70</v>
@@ -3749,7 +3749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>10</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E107" s="4">
         <v>66</v>
@@ -3776,7 +3776,7 @@
         <v>0.75131480090157776</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>11</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E108" s="4">
         <v>70</v>
@@ -3806,7 +3806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>11</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E109" s="4">
         <v>69</v>
@@ -3836,7 +3836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>11</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E110" s="4">
         <v>68</v>
@@ -3866,7 +3866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>11</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E111" s="4">
         <v>67</v>
@@ -3899,7 +3899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>11</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E112" s="4">
         <v>72</v>
@@ -3929,7 +3929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E113" s="4">
         <v>76</v>
@@ -3959,7 +3959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E114" s="4">
         <v>77</v>
@@ -3989,7 +3989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E115" s="4">
         <v>74</v>
@@ -4016,7 +4016,7 @@
         <v>0.83163879730716839</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E116" s="4">
         <v>68</v>
@@ -4046,7 +4046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E117" s="4">
         <v>72</v>
@@ -4076,7 +4076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E118" s="4">
         <v>63</v>
@@ -4106,7 +4106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E119" s="4">
         <v>73</v>
@@ -4136,7 +4136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E120" s="4">
         <v>66</v>
@@ -4166,7 +4166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E121" s="4">
         <v>72</v>
@@ -4196,7 +4196,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E122" s="4">
         <v>72</v>
@@ -4226,7 +4226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E123" s="4">
         <v>75</v>
@@ -4256,7 +4256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>6</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E124" s="4">
         <v>71</v>
@@ -4286,7 +4286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E125" s="4">
         <v>68</v>
@@ -4316,7 +4316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>6</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E126" s="4">
         <v>69</v>
@@ -4346,7 +4346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>6</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E127" s="4">
         <v>76</v>
@@ -4376,7 +4376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>16</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E128" s="4">
         <v>69</v>
@@ -4409,7 +4409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>16</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E129" s="4">
         <v>70</v>
@@ -4439,7 +4439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>16</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E130" s="4">
         <v>70</v>
@@ -4469,7 +4469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>16</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E131" s="4">
         <v>64</v>
@@ -4499,7 +4499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>16</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E132" s="4">
         <v>63</v>
@@ -4529,7 +4529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>14</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E133" s="4">
         <v>68</v>
@@ -4562,7 +4562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>11</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E134" s="4">
         <v>71</v>
@@ -4592,7 +4592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>11</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E135" s="4">
         <v>64</v>
@@ -4622,7 +4622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>11</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E136" s="4">
         <v>75</v>
@@ -4652,7 +4652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>11</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E137" s="4">
         <v>61</v>
@@ -4682,7 +4682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>10</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E138" s="4">
         <v>58</v>
@@ -4712,7 +4712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>10</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E139" s="4">
         <v>68</v>
@@ -4739,7 +4739,7 @@
         <v>0.98908508039894161</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>10</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E140" s="4">
         <v>71</v>
@@ -4766,7 +4766,7 @@
         <v>0.92201692599556873</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>10</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E141" s="4">
         <v>68</v>
@@ -4793,7 +4793,7 @@
         <v>0.94138001221249745</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>10</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E142" s="4">
         <v>65</v>
@@ -4823,7 +4823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E143" s="4">
         <v>62</v>
@@ -4853,7 +4853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E144" s="4">
         <v>63</v>
@@ -4883,7 +4883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E145" s="4">
         <v>70</v>
@@ -4910,7 +4910,7 @@
         <v>0.9008746355685131</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E146" s="4">
         <v>66</v>
@@ -4937,7 +4937,7 @@
         <v>1.0991457272449008</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E147" s="4">
         <v>68</v>
@@ -4967,7 +4967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E148" s="4">
         <v>67</v>
@@ -4997,7 +4997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E149" s="4">
         <v>68</v>
@@ -5027,7 +5027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E150" s="4">
         <v>65</v>
@@ -5057,7 +5057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E151" s="4">
         <v>72</v>
@@ -5087,7 +5087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E152" s="4">
         <v>70</v>
@@ -5117,7 +5117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>6</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E153" s="8">
         <v>68</v>
@@ -5147,7 +5147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>6</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E154" s="4">
         <v>70</v>
@@ -5177,7 +5177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>6</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E155" s="4">
         <v>60</v>
@@ -5207,7 +5207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>6</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E156" s="4">
         <v>66</v>
@@ -5237,7 +5237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E157" s="4">
         <v>65</v>
@@ -5267,7 +5267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>10</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E158" s="4">
         <v>69</v>
@@ -5300,7 +5300,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>10</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E159" s="4">
         <v>67</v>
@@ -5330,7 +5330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>10</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E160" s="4">
         <v>69</v>
@@ -5360,7 +5360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>10</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E161" s="4">
         <v>65</v>
@@ -5390,7 +5390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>10</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E162" s="4">
         <v>70</v>
@@ -5420,7 +5420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>16</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E163" s="4">
         <v>65</v>
@@ -5450,7 +5450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>16</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E164" s="4">
         <v>67</v>
@@ -5480,7 +5480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>16</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E165" s="4">
         <v>69</v>
@@ -5507,7 +5507,7 @@
         <v>0.8401596303297626</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>16</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E166" s="4">
         <v>66</v>
@@ -5537,7 +5537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>16</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E167" s="4">
         <v>71</v>
@@ -5567,7 +5567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E168" s="4">
         <v>65</v>
@@ -5597,7 +5597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E169" s="4">
         <v>66</v>
@@ -5627,7 +5627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E170" s="4">
         <v>77</v>
@@ -5657,7 +5657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E171" s="4">
         <v>69</v>
@@ -5687,7 +5687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E172" s="4">
         <v>65</v>
@@ -5717,7 +5717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E173" s="4">
         <v>66</v>
@@ -5747,7 +5747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E174" s="4">
         <v>72</v>
@@ -5777,7 +5777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E175" s="4">
         <v>74</v>
@@ -5807,7 +5807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E176" s="4">
         <v>68</v>
@@ -5840,7 +5840,7 @@
       <c r="K176" s="13"/>
       <c r="L176" s="13"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>6</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E177" s="4">
         <v>72</v>
@@ -5873,7 +5873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>6</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E178" s="4">
         <v>63</v>
@@ -5903,7 +5903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>6</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E179" s="4">
         <v>70</v>
@@ -5933,7 +5933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>6</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E180" s="4">
         <v>74</v>
@@ -5963,7 +5963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E181" s="4">
         <v>68</v>
@@ -5993,7 +5993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E182" s="4">
         <v>66</v>
@@ -6026,7 +6026,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E183" s="4">
         <v>65</v>
@@ -6056,7 +6056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E184" s="4">
         <v>66</v>
@@ -6086,7 +6086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E185" s="4">
         <v>73</v>
@@ -6116,7 +6116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E186" s="4">
         <v>72</v>
@@ -6146,7 +6146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>11</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E187" s="4">
         <v>73</v>
@@ -6176,7 +6176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>11</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E188" s="4">
         <v>68</v>
@@ -6206,7 +6206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>11</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E189" s="4">
         <v>67</v>
@@ -6236,7 +6236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>11</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E190" s="4">
         <v>69</v>
@@ -6266,7 +6266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>11</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E191" s="4">
         <v>64</v>
@@ -6296,7 +6296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>10</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E192" s="4">
         <v>64</v>
@@ -6329,7 +6329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>10</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E193" s="4">
         <v>62</v>
@@ -6359,7 +6359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>10</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E194" s="4">
         <v>65</v>
@@ -6392,7 +6392,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>10</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E195" s="4">
         <v>66</v>
@@ -6425,7 +6425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>10</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E196" s="4">
         <v>70</v>
@@ -6455,7 +6455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E197" s="4">
         <v>64</v>
@@ -6485,7 +6485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E198" s="4">
         <v>68</v>
@@ -6515,7 +6515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E199" s="4">
         <v>71</v>
@@ -6545,7 +6545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E200" s="4">
         <v>64</v>
@@ -6575,7 +6575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E201" s="4">
         <v>62</v>
@@ -6605,7 +6605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>6</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E202" s="4">
         <v>73</v>
@@ -6635,7 +6635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>6</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E203" s="4">
         <v>68</v>
@@ -6665,7 +6665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>6</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E204" s="4">
         <v>68</v>
@@ -6695,7 +6695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>6</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E205" s="4">
         <v>73</v>
@@ -6725,7 +6725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>6</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E206" s="4">
         <v>72</v>
@@ -6755,7 +6755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>14</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E207" s="4">
         <v>68</v>
@@ -6785,7 +6785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>14</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E208" s="4">
         <v>62</v>
@@ -6815,7 +6815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>14</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E209" s="4">
         <v>62</v>
@@ -6845,7 +6845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>14</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E210" s="4">
         <v>63</v>
@@ -6875,7 +6875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>14</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E211" s="4">
         <v>68</v>
@@ -6908,7 +6908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E212" s="4">
         <v>65</v>
@@ -6938,7 +6938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E213" s="4">
         <v>68</v>
@@ -6968,7 +6968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E214" s="4">
         <v>60</v>
@@ -6998,7 +6998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E215" s="4">
         <v>72</v>
@@ -7028,7 +7028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E216" s="4">
         <v>68</v>
@@ -7058,7 +7058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>6</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E217" s="4">
         <v>68</v>
@@ -7088,7 +7088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>6</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E218" s="4">
         <v>64</v>
@@ -7118,7 +7118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>6</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E219" s="2">
         <v>65</v>
@@ -7148,7 +7148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>6</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E220" s="2">
         <v>68</v>
@@ -7178,7 +7178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>6</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E221" s="2">
         <v>77</v>
@@ -7208,7 +7208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>14</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E222" s="4">
         <v>65</v>
@@ -7238,7 +7238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>14</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E223" s="2">
         <v>67</v>
@@ -7268,7 +7268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>14</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E224" s="2">
         <v>73</v>
@@ -7301,7 +7301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>14</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E225" s="2">
         <v>68</v>
@@ -7334,7 +7334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>14</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E226" s="2">
         <v>67</v>
@@ -7364,7 +7364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E227" s="4">
         <v>73</v>
@@ -7394,7 +7394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E228" s="4">
         <v>70</v>
@@ -7424,7 +7424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E229" s="4">
         <v>71</v>
@@ -7457,7 +7457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E230" s="4">
         <v>68</v>
@@ -7487,7 +7487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E231" s="4">
         <v>75</v>
@@ -7517,7 +7517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E232" s="4">
         <v>69</v>
@@ -7547,7 +7547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E233" s="2">
         <v>71</v>
@@ -7577,7 +7577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E234" s="2">
         <v>64</v>
@@ -7607,7 +7607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E235" s="2">
         <v>67</v>
@@ -7637,7 +7637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E236" s="2">
         <v>72</v>
@@ -7667,7 +7667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>6</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E237" s="4">
         <v>69</v>
@@ -7697,7 +7697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>6</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E238" s="4">
         <v>72</v>
@@ -7727,7 +7727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>6</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E239" s="2">
         <v>73</v>
@@ -7757,7 +7757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>6</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E240" s="2">
         <v>72</v>
@@ -7787,7 +7787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>6</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E241" s="2">
         <v>64</v>
@@ -7817,7 +7817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E242" s="4">
         <v>68</v>
@@ -7847,7 +7847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E243" s="4">
         <v>79</v>
@@ -7877,7 +7877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E244" s="4">
         <v>67</v>
@@ -7907,7 +7907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E245" s="4">
         <v>78</v>
@@ -7937,7 +7937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E246" s="4">
         <v>67</v>
@@ -7967,7 +7967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>13</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E247" s="4">
         <v>77</v>
@@ -7997,7 +7997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>13</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E248" s="4">
         <v>75</v>
@@ -8027,7 +8027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>13</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E249" s="4">
         <v>67</v>
@@ -8057,7 +8057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>13</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E250" s="4">
         <v>68</v>
@@ -8087,7 +8087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>13</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E251" s="4">
         <v>72</v>
@@ -8117,7 +8117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E252" s="4">
         <v>68</v>
@@ -8147,7 +8147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E253" s="4">
         <v>67</v>
@@ -8177,7 +8177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E254" s="4">
         <v>73</v>
@@ -8207,7 +8207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E255" s="4">
         <v>68</v>
@@ -8237,7 +8237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E256" s="4">
         <v>72</v>
@@ -8267,7 +8267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E257" s="4">
         <v>67</v>
@@ -8297,7 +8297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E258" s="4">
         <v>69</v>
@@ -8327,7 +8327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E259" s="4">
         <v>74</v>
@@ -8357,7 +8357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E260" s="4">
         <v>75</v>
@@ -8387,7 +8387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E261" s="4">
         <v>69</v>
@@ -8417,7 +8417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>6</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E262" s="4">
         <v>72</v>
@@ -8447,7 +8447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>6</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E263" s="4">
         <v>64</v>
@@ -8477,7 +8477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>6</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E264" s="4">
         <v>69</v>
@@ -8507,7 +8507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>6</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E265" s="4">
         <v>65</v>
@@ -8537,7 +8537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>6</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E266" s="4">
         <v>70</v>
@@ -8567,7 +8567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>10</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E267" s="4">
         <v>111</v>
@@ -8597,7 +8597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>10</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E268" s="4">
         <v>74</v>
@@ -8627,7 +8627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>10</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E269" s="4">
         <v>75</v>
@@ -8657,7 +8657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>10</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E270" s="4">
         <v>67</v>
@@ -8687,7 +8687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>10</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E271" s="4">
         <v>70</v>
@@ -8717,7 +8717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E272" s="4">
         <v>73</v>
@@ -8747,7 +8747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E273" s="4">
         <v>68</v>
@@ -8777,7 +8777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E274" s="4">
         <v>68</v>
@@ -8807,7 +8807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E275" s="4">
         <v>68</v>
@@ -8837,7 +8837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E276" s="4">
         <v>72</v>
@@ -8867,7 +8867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>14</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E277" s="18">
         <v>72</v>
@@ -8916,7 +8916,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8928,7 +8928,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
